--- a/data/trans_dic/P22_R4-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P22_R4-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.2706506303055203</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3562751765819469</v>
+        <v>0.3562751765819468</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2340770940721537</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1972381925073391</v>
+        <v>0.1968501748911825</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1848701223280562</v>
+        <v>0.184795861269773</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2121111645419988</v>
+        <v>0.207137196706793</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2564807881829506</v>
+        <v>0.2590417755436013</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1849106295857667</v>
+        <v>0.1832306850049748</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1690387746451861</v>
+        <v>0.1672235341041956</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2235355563638704</v>
+        <v>0.2202435144006059</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3222900550763315</v>
+        <v>0.3184603087008377</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2047631687495914</v>
+        <v>0.2052964219424317</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1916090744378289</v>
+        <v>0.1918612949063515</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2289240170243578</v>
+        <v>0.2281211618076422</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2981011815335105</v>
+        <v>0.2988538910383014</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2742262758002462</v>
+        <v>0.2760034349601442</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2725653692333257</v>
+        <v>0.2783914780943499</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2938308982221117</v>
+        <v>0.2933581203734109</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3349394267423186</v>
+        <v>0.3353632527459476</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2857220545048642</v>
+        <v>0.2833762694670632</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2654582625084289</v>
+        <v>0.2672189379458064</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3192408368861154</v>
+        <v>0.3212871023483374</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3951564330434768</v>
+        <v>0.3939408324308236</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2676556227352146</v>
+        <v>0.2680848390893547</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2558216949194213</v>
+        <v>0.2579766872138072</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2944465135629093</v>
+        <v>0.295437255166332</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3525541389591557</v>
+        <v>0.3551246806231033</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1832401152753951</v>
+        <v>0.1870690106779103</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2180979527251205</v>
+        <v>0.218167483059574</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1712744557389289</v>
+        <v>0.1689345784257031</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2641861970386271</v>
+        <v>0.2608624944830421</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1147861098185587</v>
+        <v>0.1148180850371872</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1278956209419597</v>
+        <v>0.1292047189752694</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1254038760189331</v>
+        <v>0.1280818107282282</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2206130860599776</v>
+        <v>0.2196496995586135</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1587562575020122</v>
+        <v>0.1579043378423359</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1848518010411927</v>
+        <v>0.1867677809759689</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1618295510959788</v>
+        <v>0.1611891960768198</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2551476827279348</v>
+        <v>0.2534750198661078</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2753226701093343</v>
+        <v>0.2741175842427137</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3134899003601239</v>
+        <v>0.3106000597655254</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2581184325360226</v>
+        <v>0.2563677314870706</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3525825704448172</v>
+        <v>0.3554781656297036</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1875905689159306</v>
+        <v>0.1857030809850336</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2242266428730521</v>
+        <v>0.220288767061236</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2065275857816244</v>
+        <v>0.2136000895077774</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2937662776037284</v>
+        <v>0.2895036006600468</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2166759573775635</v>
+        <v>0.2199018675075853</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2522912630781051</v>
+        <v>0.2562478498395162</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2218393026739912</v>
+        <v>0.2228233035914298</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3131619297367531</v>
+        <v>0.3122117654876735</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.04377995954155772</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.08695957661692696</v>
+        <v>0.08695957661692698</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05328079877947598</v>
+        <v>0.05140667205566725</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03490098024127237</v>
+        <v>0.03445543780508502</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02071010194373914</v>
+        <v>0.01890011881031387</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05110137873159384</v>
+        <v>0.05263970708890248</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02585216644550433</v>
+        <v>0.0276433903204909</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04571408185689273</v>
+        <v>0.04528323427626776</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03664179874901254</v>
+        <v>0.03710098658585302</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08018998058191056</v>
+        <v>0.08042992032799516</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05021649235683284</v>
+        <v>0.04951509205336796</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04220384841262782</v>
+        <v>0.04291027531520459</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03036750796921584</v>
+        <v>0.0301751413592572</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06640769009185282</v>
+        <v>0.06685880517534884</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09813560272426911</v>
+        <v>0.09603532426940653</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07268800281908752</v>
+        <v>0.07481158057529948</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0571440995353957</v>
+        <v>0.05566394885025477</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.108811659746429</v>
+        <v>0.1059944246294535</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1049320479093256</v>
+        <v>0.1008903685453482</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.113204901058565</v>
+        <v>0.1124683424815756</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1183972255197211</v>
+        <v>0.1192169844161843</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.155426010087668</v>
+        <v>0.1549899572721526</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08998162473694621</v>
+        <v>0.08897977499599907</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07621126165711654</v>
+        <v>0.07586115171576165</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06267554377056819</v>
+        <v>0.06209176041324451</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1105585025767643</v>
+        <v>0.108657659319055</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04196398541685192</v>
+        <v>0.04244247594468926</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02814727644349154</v>
+        <v>0.02781152834348949</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02348018970036062</v>
+        <v>0.02318447706464997</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04449228429091391</v>
+        <v>0.04498926787539127</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05131641890256167</v>
+        <v>0.05011291947102732</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04152094254289912</v>
+        <v>0.04282430696466195</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0283298234281648</v>
+        <v>0.02834841300187272</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07858743919384489</v>
+        <v>0.07866681550904417</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04897523985833519</v>
+        <v>0.04866848929866781</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03631127060237681</v>
+        <v>0.03675323249439896</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02886280991161893</v>
+        <v>0.02955864867701233</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06310132021768336</v>
+        <v>0.0636410982311347</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06715340794651101</v>
+        <v>0.06825351229227468</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0503482198565688</v>
+        <v>0.05121775194833763</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04558103649976922</v>
+        <v>0.04546966071716511</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07703690402931024</v>
+        <v>0.07828431015549334</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08869057412298761</v>
+        <v>0.08833257603887909</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07652365372223113</v>
+        <v>0.0780727022122033</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05731846463936057</v>
+        <v>0.05777281820621068</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1144995390356565</v>
+        <v>0.1150773157627761</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07029340026617181</v>
+        <v>0.07044166784135097</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05617069750490908</v>
+        <v>0.05646371184387566</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0474976174935938</v>
+        <v>0.04770600998304138</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08700211388191724</v>
+        <v>0.08807883696242956</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05025086565516003</v>
+        <v>0.04907126905690619</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01172103342183776</v>
+        <v>0.01183096646236402</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.008323963128660856</v>
+        <v>0.008335462837569092</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02107235477487086</v>
+        <v>0.02065882177047331</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04204165476198252</v>
+        <v>0.04190524203459257</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01646767857458253</v>
+        <v>0.01618743783771897</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01345435642172916</v>
+        <v>0.01366815889487753</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02928871005651248</v>
+        <v>0.02950379129334476</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05043716851587427</v>
+        <v>0.0514960777629296</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0179990563840027</v>
+        <v>0.01700728265210812</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01412657886515289</v>
+        <v>0.01258530686912354</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03002806995601246</v>
+        <v>0.0292793228073547</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1071140736260001</v>
+        <v>0.1094554016382044</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03688725310439069</v>
+        <v>0.03857217767668893</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03013780504279386</v>
+        <v>0.02974712861746832</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05608582744264776</v>
+        <v>0.05614331551309653</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08403800667772673</v>
+        <v>0.08534967250406277</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04173443310001269</v>
+        <v>0.03981267461506262</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03648720721262983</v>
+        <v>0.03725844351831418</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05191780862895414</v>
+        <v>0.05247472276603307</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08536010779292708</v>
+        <v>0.08409371558027302</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03584664511679917</v>
+        <v>0.03399116656181214</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0296232016054107</v>
+        <v>0.02946187286068878</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04913271778488736</v>
+        <v>0.05015463264805802</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.05094851269058842</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.06828788972107903</v>
+        <v>0.06828788972107906</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.07775098682720372</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.03664902897337474</v>
+        <v>0.03714997210284357</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04357489034813378</v>
+        <v>0.04270833530883417</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04861449970710621</v>
+        <v>0.04989567720088026</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.05538827606335676</v>
+        <v>0.06280798433639795</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.06825029995197662</v>
+        <v>0.06756960637915427</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.0445342917373614</v>
+        <v>0.04506203660986225</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0367793719410625</v>
+        <v>0.03626741044413401</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.05261657776320663</v>
+        <v>0.05393314595123494</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.06565849163035627</v>
+        <v>0.06508405596682675</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.0484983885138192</v>
+        <v>0.04824185833210611</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.04384239675238524</v>
+        <v>0.0442795964519904</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.06143161374855506</v>
+        <v>0.05963623595579084</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08816032660493416</v>
+        <v>0.09017809515344993</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1093072549510556</v>
+        <v>0.1119222847474519</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1140930005192711</v>
+        <v>0.1144781170540815</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2016256785614106</v>
+        <v>0.1993318492480288</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.09817936971338545</v>
+        <v>0.09792625228600907</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.07453840623575217</v>
+        <v>0.07512790265382842</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.06479150823665084</v>
+        <v>0.06588313743503124</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.0865565852877751</v>
+        <v>0.08757372089813953</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.09239917739925733</v>
+        <v>0.09200796275072994</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.07663762049590309</v>
+        <v>0.07430554493756024</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.07114684965195198</v>
+        <v>0.07065972168822252</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1041755883353334</v>
+        <v>0.1034653921433385</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.08159835835315969</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1348293307601009</v>
+        <v>0.134829330760101</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.09527944767723444</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.09431203653506932</v>
+        <v>0.09369832266479726</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08188750893104339</v>
+        <v>0.08208571471116625</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.07290830102660592</v>
+        <v>0.07119627780055812</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.123259318701533</v>
+        <v>0.1234126713144552</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.08492734959445311</v>
+        <v>0.08589599938362498</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06814643797515559</v>
+        <v>0.06715417949623954</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.06764700041585969</v>
+        <v>0.06900854496285988</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.120738269661086</v>
+        <v>0.1212970216341383</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.09287651279177825</v>
+        <v>0.09263404707701783</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.07720119430137173</v>
+        <v>0.07763393826675928</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.07318421652852498</v>
+        <v>0.07287455530014511</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1254692056466597</v>
+        <v>0.1248292773637044</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1156794945333578</v>
+        <v>0.116634922799941</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1031775011601799</v>
+        <v>0.1024818078145363</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.09213438296844896</v>
+        <v>0.09169617414695209</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1486425606372483</v>
+        <v>0.1483541861135068</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1053255866878994</v>
+        <v>0.106259245138534</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.08667172428804111</v>
+        <v>0.086549130104061</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.08741025081044214</v>
+        <v>0.08752679614036593</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1408106220654337</v>
+        <v>0.140456936164097</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1070594739654449</v>
+        <v>0.1072673967659067</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.09163800581441375</v>
+        <v>0.09149943412896441</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.08759538747384343</v>
+        <v>0.08595793583440225</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1416149433451331</v>
+        <v>0.1409672385564338</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>93150</v>
+        <v>92967</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>80827</v>
+        <v>80795</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>91015</v>
+        <v>88881</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>141223</v>
+        <v>142633</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>56708</v>
+        <v>56193</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>53155</v>
+        <v>52584</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>77579</v>
+        <v>76437</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>157410</v>
+        <v>155540</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>159501</v>
+        <v>159916</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>144026</v>
+        <v>144215</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>177679</v>
+        <v>177056</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>309736</v>
+        <v>310518</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>129510</v>
+        <v>130349</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>119169</v>
+        <v>121716</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>126080</v>
+        <v>125878</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>184424</v>
+        <v>184657</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>87625</v>
+        <v>86906</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>83474</v>
+        <v>84028</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>110794</v>
+        <v>111504</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>192999</v>
+        <v>192405</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>208491</v>
+        <v>208825</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>192292</v>
+        <v>193912</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>228534</v>
+        <v>229303</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>366314</v>
+        <v>368985</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>67237</v>
+        <v>68642</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>91339</v>
+        <v>91368</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>64444</v>
+        <v>63564</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>127658</v>
+        <v>126052</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>42685</v>
+        <v>42697</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>43230</v>
+        <v>43673</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>46684</v>
+        <v>47681</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>93351</v>
+        <v>92943</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>117289</v>
+        <v>116660</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>139897</v>
+        <v>141347</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>121135</v>
+        <v>120656</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>231254</v>
+        <v>229738</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>101025</v>
+        <v>100583</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>131289</v>
+        <v>130078</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>97120</v>
+        <v>96462</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>170372</v>
+        <v>171771</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>69758</v>
+        <v>69056</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>75791</v>
+        <v>74460</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>76885</v>
+        <v>79518</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>124305</v>
+        <v>122501</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>160080</v>
+        <v>162463</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>190936</v>
+        <v>193930</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>166055</v>
+        <v>166791</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>283836</v>
+        <v>282975</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>28855</v>
+        <v>27840</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>21967</v>
+        <v>21687</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10809</v>
+        <v>9864</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>24100</v>
+        <v>24826</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4338</v>
+        <v>4638</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>11892</v>
+        <v>11779</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6087</v>
+        <v>6163</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>15035</v>
+        <v>15080</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>35621</v>
+        <v>35124</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>37542</v>
+        <v>38171</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>20894</v>
+        <v>20762</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>43770</v>
+        <v>44067</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>53147</v>
+        <v>52010</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45751</v>
+        <v>47088</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>29824</v>
+        <v>29052</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>51317</v>
+        <v>49988</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>17606</v>
+        <v>16928</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>29448</v>
+        <v>29256</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>19669</v>
+        <v>19805</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>29142</v>
+        <v>29060</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>63829</v>
+        <v>63118</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>67793</v>
+        <v>67482</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>43123</v>
+        <v>42721</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>72870</v>
+        <v>71617</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>51833</v>
+        <v>52424</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>32595</v>
+        <v>32207</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>26972</v>
+        <v>26632</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>50358</v>
+        <v>50921</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>36655</v>
+        <v>35795</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>31832</v>
+        <v>32832</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>23296</v>
+        <v>23311</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>67680</v>
+        <v>67749</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>95475</v>
+        <v>94877</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>69888</v>
+        <v>70738</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>56889</v>
+        <v>58261</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>125764</v>
+        <v>126840</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>82946</v>
+        <v>84305</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>58305</v>
+        <v>59312</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>52359</v>
+        <v>52231</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>87194</v>
+        <v>88606</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>63350</v>
+        <v>63095</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>58667</v>
+        <v>59855</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>47134</v>
+        <v>47508</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>98608</v>
+        <v>99106</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>137034</v>
+        <v>137323</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>108111</v>
+        <v>108675</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>93619</v>
+        <v>94030</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>173400</v>
+        <v>175546</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>17616</v>
+        <v>17202</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5985</v>
+        <v>6041</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5157</v>
+        <v>5164</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>11968</v>
+        <v>11733</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>23911</v>
+        <v>23834</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>12540</v>
+        <v>12327</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>9919</v>
+        <v>10077</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>24313</v>
+        <v>24492</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>46367</v>
+        <v>47341</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>22897</v>
+        <v>21635</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>19167</v>
+        <v>17076</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>41982</v>
+        <v>40935</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>37549</v>
+        <v>38370</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>18834</v>
+        <v>19695</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>18672</v>
+        <v>18429</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>31855</v>
+        <v>31887</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>47797</v>
+        <v>48543</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>31782</v>
+        <v>30318</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>26901</v>
+        <v>27469</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>43098</v>
+        <v>43561</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>78472</v>
+        <v>77308</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>45601</v>
+        <v>43241</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>40193</v>
+        <v>39974</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>68692</v>
+        <v>70121</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>10895</v>
+        <v>11044</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>11629</v>
+        <v>11398</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>13959</v>
+        <v>14327</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>13140</v>
+        <v>14900</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>85090</v>
+        <v>84241</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>49404</v>
+        <v>49990</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>39749</v>
+        <v>39196</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>44423</v>
+        <v>45535</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>101377</v>
+        <v>100490</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>66745</v>
+        <v>66392</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>59972</v>
+        <v>60570</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>66439</v>
+        <v>64497</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>26208</v>
+        <v>26808</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>29172</v>
+        <v>29870</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>32761</v>
+        <v>32872</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>47831</v>
+        <v>47287</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>122403</v>
+        <v>122088</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>82689</v>
+        <v>83343</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>70024</v>
+        <v>71203</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>73078</v>
+        <v>73937</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>142665</v>
+        <v>142061</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>105471</v>
+        <v>102262</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>97322</v>
+        <v>96655</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>112667</v>
+        <v>111899</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>307814</v>
+        <v>305811</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>280131</v>
+        <v>280809</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>246624</v>
+        <v>240833</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>424317</v>
+        <v>424845</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>286723</v>
+        <v>289993</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>241928</v>
+        <v>238406</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>238509</v>
+        <v>243310</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>438844</v>
+        <v>440875</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>616689</v>
+        <v>615079</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>538174</v>
+        <v>541190</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>505589</v>
+        <v>503450</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>887964</v>
+        <v>883435</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>377553</v>
+        <v>380671</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>352963</v>
+        <v>350583</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>311659</v>
+        <v>310177</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>511698</v>
+        <v>510706</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>355589</v>
+        <v>358741</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>307695</v>
+        <v>307260</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>308190</v>
+        <v>308601</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>511800</v>
+        <v>510515</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>710862</v>
+        <v>712242</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>638813</v>
+        <v>637847</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>605148</v>
+        <v>593836</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1002230</v>
+        <v>997646</v>
       </c>
     </row>
     <row r="32">
